--- a/InsuranceClaimAutomation - UiPATH/mail.xlsx
+++ b/InsuranceClaimAutomation - UiPATH/mail.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>mailid</t>
   </si>
@@ -31,31 +31,49 @@
     <t>Test Mail</t>
   </si>
   <si>
+    <t>23sriram1996@gmail.com</t>
+  </si>
+  <si>
+    <t>sriram.b2014@kgkite.ac.in</t>
+  </si>
+  <si>
+    <t>kitesampath@gmail.com</t>
+  </si>
+  <si>
+    <t>elangoraj31796@gmail.com</t>
+  </si>
+  <si>
+    <t>sampathkumar.p.n2014@kgkite.ac.in</t>
+  </si>
+  <si>
+    <t>rajesh.e2014@kgkite.ac.in</t>
+  </si>
+  <si>
+    <t>t.r.sudharshan.08@gmail.com</t>
+  </si>
+  <si>
     <t>Your work flow is running successfully. This is an automated mail sent through UiPATH</t>
   </si>
   <si>
-    <t>23sriram1996@gmail.com</t>
-  </si>
-  <si>
-    <t>sriram.b2014@kgkite.ac.in</t>
-  </si>
-  <si>
-    <t>kitesampath@gmail.com</t>
-  </si>
-  <si>
-    <t>elangoraj31796@gmail.com</t>
-  </si>
-  <si>
-    <t>sampathkumar.p.n2014@kgkite.ac.in</t>
-  </si>
-  <si>
-    <t>rajesh.e2014@kgkite.ac.in</t>
-  </si>
-  <si>
-    <t>t.r.sudharshan.08@gmail.com</t>
-  </si>
-  <si>
-    <t>prabhakar.ganeshan96@gmail.com</t>
+    <t>prabhakar.ganesan96@gmail.com</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>SRIRAM</t>
+  </si>
+  <si>
+    <t>RAJESH</t>
+  </si>
+  <si>
+    <t>SAMPATHKUMAR</t>
+  </si>
+  <si>
+    <t>SUDHARSHAN</t>
+  </si>
+  <si>
+    <t>PRABHAKAR</t>
   </si>
 </sst>
 </file>
@@ -411,7 +429,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +444,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -436,84 +457,108 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -524,7 +569,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
